--- a/PortfolioData.xlsx
+++ b/PortfolioData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0ea9265487b6e9b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{5A88C5A6-E414-422D-AE28-98827319995D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{941320E2-B11C-4C3E-88F3-82746E0BBEC8}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{5A88C5A6-E414-422D-AE28-98827319995D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7ED6D9B-35C9-4BE8-944B-CB2BEE255FFC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B6E79F88-8145-4DF4-AE9F-D2787994CCF3}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
   <si>
     <t>Financial Services</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>Profit/ Loss</t>
+  </si>
+  <si>
+    <t>Source: https://primeinvestor.in/nifty-50-returns/</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="160">
+  <fills count="158">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,12 +742,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC3E59A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE9A3C9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -787,12 +784,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD1ECB0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFAF6EA"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -805,12 +796,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB9E18C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF4D9221"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -835,12 +820,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC8E8A3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD7629D"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -871,12 +850,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7F5D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6F5D0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -907,12 +880,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFACDC7A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F6E0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -931,12 +898,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4DF86"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD65F9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -985,12 +946,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2F3CA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF1F6DE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1051,373 +1006,409 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC8E8A2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5F5CF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6CAE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCBE9A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8DA75"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4F6E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCEEAAB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAEFBD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA3D86C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F6DF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE290"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8BC557"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF84BF51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9DA75"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7CB84B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB6E087"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC3E69B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAADB77"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9DA76"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFDD7E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92CB5E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD4EDB4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA0D669"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDEF1C3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD6EEB8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDEF1C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAF6E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE1F3C8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF78B447"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9E8A4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC1E497"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBFE495"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCDCEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFADDC7B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF82BD4F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB0DD7F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBF5D7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F6E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC7E7A1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDDFEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF95CD60"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5F4CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCEBEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAD6E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB5E087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBF3EB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8DA74"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBAE18E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBF0BF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8D1E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9FD568"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE9F5D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8D1E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3EDB3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE3F4CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7CCE2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE391"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBEE394"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF98CF62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBE290"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEE393"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6C9E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE7ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EFBC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD7E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4F4CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4E69C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CD366"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFEBAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F6E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EFBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5DF86"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7EEB8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF5DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBAE18D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3D86E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0F3C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ED467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7EB94C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5EDB5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9E8A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD8EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF89C356"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDCED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2E599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBAE28E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1EBAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3ECB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDBEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5D970"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF0EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E08A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4E69D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ED568"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF4EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF6DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2E59A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5F5CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F6DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF5DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CFE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBF0EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7CDE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADDC7A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F6E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7CCE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCF0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6CBE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F6E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBECEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BC457"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7E7A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F6E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7DA73"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5EDB6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,7 +1506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1538,484 +1529,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="96" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="88" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="96" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="88" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="97" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="94" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="98" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="99" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="81" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="72" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="91" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="65" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="78" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="100" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="101" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="102" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="81" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="66" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="106" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="107" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="108" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="109" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="69" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="110" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="111" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="112" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="72" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="116" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="95" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="117" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="76" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="118" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="119" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="120" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="77" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="121" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="68" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="122" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="70" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="123" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="124" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="125" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="126" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="127" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="67" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="64" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="68" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="63" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="128" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="61" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="60" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="129" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="130" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="131" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="132" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="133" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="134" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="135" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="136" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="137" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="138" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="139" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="140" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="74" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="141" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="142" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="143" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="144" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="145" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="146" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="147" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="148" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="75" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="149" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="150" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="151" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="152" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="153" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="154" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="155" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="156" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="157" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="158" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="62" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2031,7 +1593,445 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="159" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="102" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="76" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="106" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="62" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="107" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="98" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="78" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="108" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="109" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="100" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="77" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="75" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="74" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="96" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="110" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="111" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="91" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="112" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="116" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="70" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="117" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="94" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="69" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="97" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="67" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="64" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="118" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="66" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="65" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="119" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="120" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="121" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="60" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="122" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="123" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="61" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="124" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="125" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="126" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="127" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="128" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="129" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="130" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="131" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="132" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="133" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="134" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="135" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="136" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="137" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="138" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="139" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="140" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="141" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="142" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="143" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="144" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="145" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="146" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="147" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="95" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="148" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="149" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="150" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="151" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="152" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="153" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="99" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="154" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="155" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="156" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="151" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="157" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4078,10 +4078,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C827436A-713A-40B4-B4D2-2FF56B6AF67E}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4098,7 +4098,7 @@
     <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
@@ -4142,927 +4142,930 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="39">
         <v>2000</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="40">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="41">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="42">
         <v>-7.6399999999999996E-2</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="43">
         <v>-7.9799999999999996E-2</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="44">
         <v>-1.8599999999999998E-2</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="45">
         <v>6.59E-2</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="46">
         <v>-9.4200000000000006E-2</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="47">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="48">
         <v>-8.7800000000000003E-2</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="49">
         <v>-7.7799999999999994E-2</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="50">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="51">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="52">
         <v>-0.14649999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="P2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="39">
         <v>2001</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="53">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="54">
         <v>-1.4800000000000001E-2</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="17">
         <v>-0.15040000000000001</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="44">
         <v>-0.02</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="55">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="56">
         <v>-5.1400000000000001E-2</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="57">
         <v>-3.1600000000000003E-2</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="58">
         <v>-1.78E-2</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="18">
         <v>-0.1328</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="59">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="60">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="M3" s="41">
+      <c r="M3" s="61">
         <v>-7.6E-3</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="52">
         <v>-0.1618</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
         <v>2002</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="62">
         <v>1.54E-2</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="63">
         <v>6.2E-2</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="64">
         <v>-1.09E-2</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="65">
         <v>-3.9899999999999998E-2</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="56">
         <v>-5.1400000000000001E-2</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="66">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="67">
         <v>-9.35E-2</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="68">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="69">
         <v>-4.7E-2</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="70">
         <v>-1.2200000000000001E-2</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="71">
         <v>0.1038</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="72">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="52">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
         <v>2003</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="73">
         <v>-4.7199999999999999E-2</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="74">
         <v>2.07E-2</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="75">
         <v>-8.0100000000000005E-2</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="76">
         <v>-4.5100000000000001E-2</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="77">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="78">
         <v>0.1265</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="79">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="80">
         <v>0.1439</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="40">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="60">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="55">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="M5" s="60">
+      <c r="M5" s="81">
         <v>0.1638</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="52">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
         <v>2004</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="82">
         <v>-3.7199999999999997E-2</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="83">
         <v>-5.1999999999999998E-3</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="84">
         <v>-1.5800000000000002E-2</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="85">
         <v>1.37E-2</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="20">
         <v>-0.17399999999999999</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="62">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="86">
         <v>8.4199999999999997E-2</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="87">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="88">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="89">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="90">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="91">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="52">
         <v>0.10680000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="39">
         <v>2005</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="64">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="92">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="57">
         <v>-3.2099999999999997E-2</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="93">
         <v>-6.54E-2</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="94">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="95">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="72">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="96">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="J7" s="76">
+      <c r="J7" s="97">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="K7" s="77">
+      <c r="K7" s="98">
         <v>-8.8599999999999998E-2</v>
       </c>
-      <c r="L7" s="78">
+      <c r="L7" s="99">
         <v>0.1186</v>
       </c>
-      <c r="M7" s="68">
+      <c r="M7" s="88">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="52">
         <v>0.3634</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
         <v>2006</v>
       </c>
-      <c r="B8" s="79">
+      <c r="B8" s="100">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="101">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="102">
         <v>0.1066</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="79">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="22">
         <v>-0.1368</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="103">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="104">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="53">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="J8" s="85">
+      <c r="J8" s="105">
         <v>5.11E-2</v>
       </c>
-      <c r="K8" s="86">
+      <c r="K8" s="40">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="L8" s="87">
+      <c r="L8" s="106">
         <v>5.62E-2</v>
       </c>
-      <c r="M8" s="88">
+      <c r="M8" s="107">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="52">
         <v>0.39829999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
         <v>2007</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="108">
         <v>2.93E-2</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="109">
         <v>-8.2600000000000007E-2</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="74">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="88">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="F9" s="90">
+      <c r="F9" s="110">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="G9" s="91">
+      <c r="G9" s="104">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="111">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="I9" s="93">
+      <c r="I9" s="54">
         <v>-1.43E-2</v>
       </c>
-      <c r="J9" s="94">
+      <c r="J9" s="112">
         <v>0.1249</v>
       </c>
-      <c r="K9" s="95">
+      <c r="K9" s="113">
         <v>0.17510000000000001</v>
       </c>
-      <c r="L9" s="96">
+      <c r="L9" s="114">
         <v>-2.3400000000000001E-2</v>
       </c>
-      <c r="M9" s="97">
+      <c r="M9" s="115">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="52">
         <v>0.54769999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="39">
         <v>2008</v>
       </c>
-      <c r="B10" s="98">
+      <c r="B10" s="23">
         <v>-0.16309999999999999</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="116">
         <v>1.67E-2</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="67">
         <v>-9.3600000000000003E-2</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="97">
         <v>9.11E-2</v>
       </c>
-      <c r="F10" s="100">
+      <c r="F10" s="117">
         <v>-5.7299999999999997E-2</v>
       </c>
-      <c r="G10" s="101">
+      <c r="G10" s="24">
         <v>-0.17030000000000001</v>
       </c>
-      <c r="H10" s="102">
+      <c r="H10" s="118">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="I10" s="103">
+      <c r="I10" s="119">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="J10" s="104">
+      <c r="J10" s="25">
         <v>-0.10059999999999999</v>
       </c>
-      <c r="K10" s="105">
+      <c r="K10" s="26">
         <v>-0.2641</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="76">
         <v>-4.5199999999999997E-2</v>
       </c>
-      <c r="M10" s="106">
+      <c r="M10" s="120">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="52">
         <v>-0.51790000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
         <v>2009</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="121">
         <v>-2.8500000000000001E-2</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="122">
         <v>-3.8699999999999998E-2</v>
       </c>
-      <c r="D11" s="109">
+      <c r="D11" s="123">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="E11" s="110">
+      <c r="E11" s="124">
         <v>0.15</v>
       </c>
-      <c r="F11" s="111">
+      <c r="F11" s="27">
         <v>0.28070000000000001</v>
       </c>
-      <c r="G11" s="112">
+      <c r="G11" s="125">
         <v>-3.5499999999999997E-2</v>
       </c>
-      <c r="H11" s="113">
+      <c r="H11" s="126">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I11" s="104">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="J11" s="114">
+      <c r="J11" s="127">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="K11" s="115">
+      <c r="K11" s="128">
         <v>-7.3200000000000001E-2</v>
       </c>
-      <c r="L11" s="116">
+      <c r="L11" s="129">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="M11" s="117">
+      <c r="M11" s="130">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="52">
         <v>0.75760000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
         <v>2010</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="131">
         <v>-6.13E-2</v>
       </c>
-      <c r="C12" s="119">
+      <c r="C12" s="132">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="D12" s="120">
+      <c r="D12" s="133">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="E12" s="103">
+      <c r="E12" s="104">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="F12" s="121">
+      <c r="F12" s="134">
         <v>-3.6299999999999999E-2</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="40">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="H12" s="122">
+      <c r="H12" s="135">
         <v>1.04E-2</v>
       </c>
-      <c r="I12" s="103">
+      <c r="I12" s="119">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="J12" s="123">
+      <c r="J12" s="136">
         <v>0.1162</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="137">
         <v>-2E-3</v>
       </c>
-      <c r="L12" s="124">
+      <c r="L12" s="138">
         <v>-2.58E-2</v>
       </c>
-      <c r="M12" s="125">
+      <c r="M12" s="47">
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="52">
         <v>0.17949999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
         <v>2011</v>
       </c>
-      <c r="B13" s="126">
+      <c r="B13" s="28">
         <v>-0.10249999999999999</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="57">
         <v>-3.1399999999999997E-2</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D13" s="139">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="E13" s="128">
+      <c r="E13" s="54">
         <v>-1.44E-2</v>
       </c>
-      <c r="F13" s="129">
+      <c r="F13" s="140">
         <v>-3.2899999999999999E-2</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="116">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="H13" s="130">
+      <c r="H13" s="141">
         <v>-2.93E-2</v>
       </c>
-      <c r="I13" s="131">
+      <c r="I13" s="142">
         <v>-8.77E-2</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="64">
         <v>-1.15E-2</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="143">
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="L13" s="132">
+      <c r="L13" s="144">
         <v>-9.2799999999999994E-2</v>
       </c>
-      <c r="M13" s="133">
+      <c r="M13" s="145">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="52">
         <v>-0.2462</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="39">
         <v>2012</v>
       </c>
-      <c r="B14" s="94">
+      <c r="B14" s="146">
         <v>0.12429999999999999</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="147">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="84">
         <v>-1.66E-2</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="148">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="F14" s="118">
+      <c r="F14" s="131">
         <v>-6.1699999999999998E-2</v>
       </c>
-      <c r="G14" s="135">
+      <c r="G14" s="118">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H14" s="136">
+      <c r="H14" s="148">
         <v>-9.4999999999999998E-3</v>
       </c>
-      <c r="I14" s="103">
+      <c r="I14" s="104">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="J14" s="137">
+      <c r="J14" s="86">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="K14" s="128">
+      <c r="K14" s="54">
         <v>-1.47E-2</v>
       </c>
-      <c r="L14" s="125">
+      <c r="L14" s="47">
         <v>4.6300000000000001E-2</v>
       </c>
-      <c r="M14" s="83">
+      <c r="M14" s="149">
         <v>4.3E-3</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="52">
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="39">
         <v>2013</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="92">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C15" s="138">
+      <c r="C15" s="150">
         <v>-5.6599999999999998E-2</v>
       </c>
-      <c r="D15" s="139">
+      <c r="D15" s="137">
         <v>-1.8E-3</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="40">
         <v>4.36E-2</v>
       </c>
-      <c r="F15" s="140">
+      <c r="F15" s="135">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="G15" s="96">
+      <c r="G15" s="114">
         <v>-2.4E-2</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="58">
         <v>-1.72E-2</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="69">
         <v>-4.7100000000000003E-2</v>
       </c>
-      <c r="J15" s="141">
+      <c r="J15" s="151">
         <v>4.82E-2</v>
       </c>
-      <c r="K15" s="142">
+      <c r="K15" s="60">
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="44">
         <v>-1.95E-2</v>
       </c>
-      <c r="M15" s="52">
+      <c r="M15" s="74">
         <v>2.07E-2</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="52">
         <v>6.7599999999999993E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="39">
         <v>2014</v>
       </c>
-      <c r="B16" s="129">
+      <c r="B16" s="152">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="C16" s="143">
+      <c r="C16" s="153">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="D16" s="116">
+      <c r="D16" s="129">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="E16" s="139">
+      <c r="E16" s="87">
         <v>-1.1999999999999999E-3</v>
       </c>
-      <c r="F16" s="144">
+      <c r="F16" s="154">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="G16" s="145">
+      <c r="G16" s="155">
         <v>5.28E-2</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="62">
         <v>1.44E-2</v>
       </c>
-      <c r="I16" s="143">
+      <c r="I16" s="156">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="J16" s="146">
+      <c r="J16" s="157">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="40">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="L16" s="75">
+      <c r="L16" s="158">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M16" s="112">
+      <c r="M16" s="125">
         <v>-3.56E-2</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="52">
         <v>0.31390000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="A17" s="39">
         <v>2015</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="59">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="C17" s="122">
+      <c r="C17" s="135">
         <v>1.06E-2</v>
       </c>
-      <c r="D17" s="147">
+      <c r="D17" s="159">
         <v>-4.6199999999999998E-2</v>
       </c>
-      <c r="E17" s="121">
+      <c r="E17" s="134">
         <v>-3.6499999999999998E-2</v>
       </c>
-      <c r="F17" s="143">
+      <c r="F17" s="153">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="61">
         <v>-7.7000000000000002E-3</v>
       </c>
-      <c r="H17" s="148">
+      <c r="H17" s="160">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="93">
         <v>-6.5799999999999997E-2</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="161">
         <v>-2.8E-3</v>
       </c>
-      <c r="K17" s="65">
+      <c r="K17" s="62">
         <v>1.47E-2</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="84">
         <v>-1.6199999999999999E-2</v>
       </c>
-      <c r="M17" s="146">
+      <c r="M17" s="157">
         <v>1.4E-3</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="52">
         <v>-4.0599999999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="A18" s="39">
         <v>2016</v>
       </c>
-      <c r="B18" s="149">
+      <c r="B18" s="162">
         <v>-4.82E-2</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="42">
         <v>-7.6200000000000004E-2</v>
       </c>
-      <c r="D18" s="150">
+      <c r="D18" s="163">
         <v>0.1075</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="62">
         <v>1.44E-2</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F18" s="164">
         <v>3.95E-2</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="165">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="H18" s="152">
+      <c r="H18" s="166">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="I18" s="99">
+      <c r="I18" s="167">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="44">
         <v>-1.9900000000000001E-2</v>
       </c>
-      <c r="K18" s="88">
+      <c r="K18" s="157">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="L18" s="153">
+      <c r="L18" s="159">
         <v>-4.65E-2</v>
       </c>
-      <c r="M18" s="62">
+      <c r="M18" s="83">
         <v>-4.7000000000000002E-3</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="52">
         <v>3.0099999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="39">
         <v>2017</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="47">
         <v>4.5900000000000003E-2</v>
       </c>
-      <c r="C19" s="154">
+      <c r="C19" s="168">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="D19" s="155">
+      <c r="D19" s="130">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="62">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="F19" s="156">
+      <c r="F19" s="130">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="G19" s="136">
+      <c r="G19" s="64">
         <v>-1.04E-2</v>
       </c>
-      <c r="H19" s="157">
+      <c r="H19" s="169">
         <v>5.8400000000000001E-2</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="84">
         <v>-1.5800000000000002E-2</v>
       </c>
-      <c r="J19" s="93">
+      <c r="J19" s="70">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="K19" s="158">
+      <c r="K19" s="170">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="L19" s="136">
+      <c r="L19" s="64">
         <v>-1.0500000000000001E-2</v>
       </c>
-      <c r="M19" s="143">
+      <c r="M19" s="108">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="52">
         <v>0.28649999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+      <c r="A20" s="39">
         <v>2018</v>
       </c>
-      <c r="B20" s="159">
+      <c r="B20" s="151">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="C20" s="160">
+      <c r="C20" s="171">
         <v>-4.8500000000000001E-2</v>
       </c>
-      <c r="D20" s="161">
+      <c r="D20" s="134">
         <v>-3.61E-2</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="63">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="87">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="137">
         <v>-2E-3</v>
       </c>
-      <c r="H20" s="162">
+      <c r="H20" s="172">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="108">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="J20" s="163">
+      <c r="J20" s="173">
         <v>-6.4199999999999993E-2</v>
       </c>
-      <c r="K20" s="164">
+      <c r="K20" s="174">
         <v>-4.9799999999999997E-2</v>
       </c>
-      <c r="L20" s="159">
+      <c r="L20" s="151">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="M20" s="139">
+      <c r="M20" s="137">
         <v>-1.2999999999999999E-3</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="52">
         <v>3.15E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="39">
         <v>2019</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="161">
         <v>-2.8999999999999998E-3</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="51">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="D21" s="165">
+      <c r="D21" s="175">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="E21" s="122">
+      <c r="E21" s="176">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="62">
         <v>1.49E-2</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="64">
         <v>-1.12E-2</v>
       </c>
-      <c r="H21" s="138">
+      <c r="H21" s="150">
         <v>-5.6899999999999999E-2</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="177">
         <v>-8.5000000000000006E-3</v>
       </c>
-      <c r="J21" s="166">
+      <c r="J21" s="164">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="K21" s="156">
+      <c r="K21" s="147">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="L21" s="65">
+      <c r="L21" s="62">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M21" s="119">
+      <c r="M21" s="135">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="52">
         <v>0.1202</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+      <c r="A22" s="39">
         <v>2020</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="58">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="C22" s="163">
+      <c r="C22" s="173">
         <v>-6.3600000000000004E-2</v>
       </c>
-      <c r="D22" s="167">
+      <c r="D22" s="30">
         <v>-0.23250000000000001</v>
       </c>
-      <c r="E22" s="168">
+      <c r="E22" s="178">
         <v>0.14680000000000001</v>
       </c>
-      <c r="F22" s="107">
+      <c r="F22" s="121">
         <v>-2.8400000000000002E-2</v>
       </c>
-      <c r="G22" s="169">
+      <c r="G22" s="179">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="H22" s="169">
+      <c r="H22" s="180">
         <v>7.4899999999999994E-2</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="108">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="J22" s="170">
+      <c r="J22" s="181">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="K22" s="156">
+      <c r="K22" s="147">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="L22" s="171">
+      <c r="L22" s="182">
         <v>0.1139</v>
       </c>
-      <c r="M22" s="172">
+      <c r="M22" s="77">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="N22" s="29">
+      <c r="N22" s="52">
         <v>0.14169999999999999</v>
       </c>
     </row>
@@ -5070,19 +5073,21 @@
       <c r="A23" s="16">
         <v>2021</v>
       </c>
-      <c r="B23" s="96">
+      <c r="B23" s="29">
         <v>-2.4799999999999999E-2</v>
       </c>
-      <c r="C23" s="173">
+      <c r="C23" s="21">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="D23" s="122">
+      <c r="D23" s="183">
         <v>1.11E-2</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="19">
         <v>-4.1000000000000003E-3</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="184">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -5100,6 +5105,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5107,7 +5113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554585B0-CF8A-4D82-A0A4-0503181C5759}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -5807,15 +5813,15 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="180" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="175" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="32" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" customWidth="1"/>
@@ -5825,10 +5831,10 @@
       <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="34" t="s">
         <v>99</v>
       </c>
       <c r="D1" s="9"/>
@@ -5837,19 +5843,19 @@
       <c r="A2" s="11">
         <v>1964</v>
       </c>
-      <c r="B2" s="179">
+      <c r="B2" s="36">
         <v>63.25</v>
       </c>
-      <c r="C2" s="176"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1965</v>
       </c>
-      <c r="B3" s="179">
+      <c r="B3" s="36">
         <v>71.75</v>
       </c>
-      <c r="C3" s="174">
+      <c r="C3" s="31">
         <f>(B3-B2)/B2</f>
         <v>0.13438735177865613</v>
       </c>
@@ -5858,10 +5864,10 @@
       <c r="A4" s="11">
         <v>1966</v>
       </c>
-      <c r="B4" s="179">
+      <c r="B4" s="36">
         <v>83.75</v>
       </c>
-      <c r="C4" s="174">
+      <c r="C4" s="31">
         <f t="shared" ref="C4:C58" si="0">(B4-B3)/B3</f>
         <v>0.1672473867595819</v>
       </c>
@@ -5873,10 +5879,10 @@
       <c r="A5" s="11">
         <v>1967</v>
       </c>
-      <c r="B5" s="179">
+      <c r="B5" s="36">
         <v>102.5</v>
       </c>
-      <c r="C5" s="174">
+      <c r="C5" s="31">
         <f t="shared" si="0"/>
         <v>0.22388059701492538</v>
       </c>
@@ -5885,14 +5891,14 @@
       <c r="A6" s="11">
         <v>1968</v>
       </c>
-      <c r="B6" s="179">
+      <c r="B6" s="36">
         <v>162</v>
       </c>
-      <c r="C6" s="174">
+      <c r="C6" s="31">
         <f t="shared" si="0"/>
         <v>0.58048780487804874</v>
       </c>
-      <c r="F6" s="181" t="s">
+      <c r="F6" s="38" t="s">
         <v>108</v>
       </c>
       <c r="G6">
@@ -5903,14 +5909,14 @@
       <c r="A7" s="11">
         <v>1969</v>
       </c>
-      <c r="B7" s="179">
+      <c r="B7" s="36">
         <v>176</v>
       </c>
-      <c r="C7" s="174">
+      <c r="C7" s="31">
         <f t="shared" si="0"/>
         <v>8.6419753086419748E-2</v>
       </c>
-      <c r="F7" s="181" t="s">
+      <c r="F7" s="38" t="s">
         <v>109</v>
       </c>
       <c r="G7">
@@ -5921,14 +5927,14 @@
       <c r="A8" s="11">
         <v>1970</v>
       </c>
-      <c r="B8" s="179">
+      <c r="B8" s="36">
         <v>184</v>
       </c>
-      <c r="C8" s="174">
+      <c r="C8" s="31">
         <f t="shared" si="0"/>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="F8" s="181" t="s">
+      <c r="F8" s="38" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5936,10 +5942,10 @@
       <c r="A9" s="11">
         <v>1971</v>
       </c>
-      <c r="B9" s="179">
+      <c r="B9" s="36">
         <v>193</v>
       </c>
-      <c r="C9" s="174">
+      <c r="C9" s="31">
         <f t="shared" si="0"/>
         <v>4.8913043478260872E-2</v>
       </c>
@@ -5948,10 +5954,10 @@
       <c r="A10" s="11">
         <v>1972</v>
       </c>
-      <c r="B10" s="179">
+      <c r="B10" s="36">
         <v>202</v>
       </c>
-      <c r="C10" s="174">
+      <c r="C10" s="31">
         <f t="shared" si="0"/>
         <v>4.6632124352331605E-2</v>
       </c>
@@ -5960,10 +5966,10 @@
       <c r="A11" s="11">
         <v>1973</v>
       </c>
-      <c r="B11" s="179">
+      <c r="B11" s="36">
         <v>278.5</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="31">
         <f t="shared" si="0"/>
         <v>0.37871287128712872</v>
       </c>
@@ -5972,10 +5978,10 @@
       <c r="A12" s="11">
         <v>1974</v>
       </c>
-      <c r="B12" s="179">
+      <c r="B12" s="36">
         <v>506</v>
       </c>
-      <c r="C12" s="174">
+      <c r="C12" s="31">
         <f t="shared" si="0"/>
         <v>0.81687612208258531</v>
       </c>
@@ -5984,10 +5990,10 @@
       <c r="A13" s="11">
         <v>1975</v>
       </c>
-      <c r="B13" s="179">
+      <c r="B13" s="36">
         <v>540</v>
       </c>
-      <c r="C13" s="174">
+      <c r="C13" s="31">
         <f t="shared" si="0"/>
         <v>6.7193675889328064E-2</v>
       </c>
@@ -5996,10 +6002,10 @@
       <c r="A14" s="11">
         <v>1976</v>
       </c>
-      <c r="B14" s="179">
+      <c r="B14" s="36">
         <v>432</v>
       </c>
-      <c r="C14" s="174">
+      <c r="C14" s="31">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
@@ -6008,10 +6014,10 @@
       <c r="A15" s="11">
         <v>1977</v>
       </c>
-      <c r="B15" s="179">
+      <c r="B15" s="36">
         <v>486</v>
       </c>
-      <c r="C15" s="174">
+      <c r="C15" s="31">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
@@ -6020,10 +6026,10 @@
       <c r="A16" s="11">
         <v>1978</v>
       </c>
-      <c r="B16" s="179">
+      <c r="B16" s="36">
         <v>685</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="31">
         <f t="shared" si="0"/>
         <v>0.40946502057613171</v>
       </c>
@@ -6032,10 +6038,10 @@
       <c r="A17" s="11">
         <v>1979</v>
       </c>
-      <c r="B17" s="179">
+      <c r="B17" s="36">
         <v>937</v>
       </c>
-      <c r="C17" s="174">
+      <c r="C17" s="31">
         <f t="shared" si="0"/>
         <v>0.36788321167883209</v>
       </c>
@@ -6044,10 +6050,10 @@
       <c r="A18" s="11">
         <v>1980</v>
       </c>
-      <c r="B18" s="179">
+      <c r="B18" s="36">
         <v>1330</v>
       </c>
-      <c r="C18" s="174">
+      <c r="C18" s="31">
         <f t="shared" si="0"/>
         <v>0.4194236926360726</v>
       </c>
@@ -6056,10 +6062,10 @@
       <c r="A19" s="11">
         <v>1981</v>
       </c>
-      <c r="B19" s="179">
+      <c r="B19" s="36">
         <v>1800</v>
       </c>
-      <c r="C19" s="174">
+      <c r="C19" s="31">
         <f t="shared" si="0"/>
         <v>0.35338345864661652</v>
       </c>
@@ -6068,10 +6074,10 @@
       <c r="A20" s="11">
         <v>1982</v>
       </c>
-      <c r="B20" s="179">
+      <c r="B20" s="36">
         <v>1645</v>
       </c>
-      <c r="C20" s="174">
+      <c r="C20" s="31">
         <f t="shared" si="0"/>
         <v>-8.611111111111111E-2</v>
       </c>
@@ -6080,10 +6086,10 @@
       <c r="A21" s="11">
         <v>1983</v>
       </c>
-      <c r="B21" s="179">
+      <c r="B21" s="36">
         <v>1800</v>
       </c>
-      <c r="C21" s="174">
+      <c r="C21" s="31">
         <f t="shared" si="0"/>
         <v>9.4224924012158054E-2</v>
       </c>
@@ -6092,10 +6098,10 @@
       <c r="A22" s="11">
         <v>1984</v>
       </c>
-      <c r="B22" s="179">
+      <c r="B22" s="36">
         <v>1970</v>
       </c>
-      <c r="C22" s="174">
+      <c r="C22" s="31">
         <f t="shared" si="0"/>
         <v>9.4444444444444442E-2</v>
       </c>
@@ -6104,10 +6110,10 @@
       <c r="A23" s="11">
         <v>1985</v>
       </c>
-      <c r="B23" s="179">
+      <c r="B23" s="36">
         <v>2130</v>
       </c>
-      <c r="C23" s="174">
+      <c r="C23" s="31">
         <f t="shared" si="0"/>
         <v>8.1218274111675121E-2</v>
       </c>
@@ -6116,10 +6122,10 @@
       <c r="A24" s="11">
         <v>1986</v>
       </c>
-      <c r="B24" s="179">
+      <c r="B24" s="36">
         <v>2140</v>
       </c>
-      <c r="C24" s="174">
+      <c r="C24" s="31">
         <f t="shared" si="0"/>
         <v>4.6948356807511738E-3</v>
       </c>
@@ -6128,10 +6134,10 @@
       <c r="A25" s="11">
         <v>1987</v>
       </c>
-      <c r="B25" s="179">
+      <c r="B25" s="36">
         <v>2570</v>
       </c>
-      <c r="C25" s="174">
+      <c r="C25" s="31">
         <f t="shared" si="0"/>
         <v>0.20093457943925233</v>
       </c>
@@ -6140,10 +6146,10 @@
       <c r="A26" s="11">
         <v>1988</v>
       </c>
-      <c r="B26" s="179">
+      <c r="B26" s="36">
         <v>3130</v>
       </c>
-      <c r="C26" s="174">
+      <c r="C26" s="31">
         <f t="shared" si="0"/>
         <v>0.21789883268482491</v>
       </c>
@@ -6152,10 +6158,10 @@
       <c r="A27" s="11">
         <v>1989</v>
       </c>
-      <c r="B27" s="179">
+      <c r="B27" s="36">
         <v>3140</v>
       </c>
-      <c r="C27" s="174">
+      <c r="C27" s="31">
         <f t="shared" si="0"/>
         <v>3.1948881789137379E-3</v>
       </c>
@@ -6164,10 +6170,10 @@
       <c r="A28" s="11">
         <v>1990</v>
       </c>
-      <c r="B28" s="179">
+      <c r="B28" s="36">
         <v>3200</v>
       </c>
-      <c r="C28" s="174">
+      <c r="C28" s="31">
         <f t="shared" si="0"/>
         <v>1.9108280254777069E-2</v>
       </c>
@@ -6176,10 +6182,10 @@
       <c r="A29" s="11">
         <v>1991</v>
       </c>
-      <c r="B29" s="179">
+      <c r="B29" s="36">
         <v>3466</v>
       </c>
-      <c r="C29" s="174">
+      <c r="C29" s="31">
         <f t="shared" si="0"/>
         <v>8.3125000000000004E-2</v>
       </c>
@@ -6188,10 +6194,10 @@
       <c r="A30" s="11">
         <v>1992</v>
       </c>
-      <c r="B30" s="179">
+      <c r="B30" s="36">
         <v>4334</v>
       </c>
-      <c r="C30" s="174">
+      <c r="C30" s="31">
         <f t="shared" si="0"/>
         <v>0.25043277553375648</v>
       </c>
@@ -6200,10 +6206,10 @@
       <c r="A31" s="11">
         <v>1993</v>
       </c>
-      <c r="B31" s="179">
+      <c r="B31" s="36">
         <v>4140</v>
       </c>
-      <c r="C31" s="174">
+      <c r="C31" s="31">
         <f t="shared" si="0"/>
         <v>-4.4762344254730038E-2</v>
       </c>
@@ -6212,10 +6218,10 @@
       <c r="A32" s="11">
         <v>1994</v>
       </c>
-      <c r="B32" s="179">
+      <c r="B32" s="36">
         <v>4598</v>
       </c>
-      <c r="C32" s="174">
+      <c r="C32" s="31">
         <f t="shared" si="0"/>
         <v>0.1106280193236715</v>
       </c>
@@ -6224,10 +6230,10 @@
       <c r="A33" s="11">
         <v>1995</v>
       </c>
-      <c r="B33" s="179">
+      <c r="B33" s="36">
         <v>4680</v>
       </c>
-      <c r="C33" s="174">
+      <c r="C33" s="31">
         <f t="shared" si="0"/>
         <v>1.7833840800347979E-2</v>
       </c>
@@ -6236,10 +6242,10 @@
       <c r="A34" s="11">
         <v>1996</v>
       </c>
-      <c r="B34" s="179">
+      <c r="B34" s="36">
         <v>5160</v>
       </c>
-      <c r="C34" s="174">
+      <c r="C34" s="31">
         <f t="shared" si="0"/>
         <v>0.10256410256410256</v>
       </c>
@@ -6248,10 +6254,10 @@
       <c r="A35" s="11">
         <v>1997</v>
       </c>
-      <c r="B35" s="179">
+      <c r="B35" s="36">
         <v>4725</v>
       </c>
-      <c r="C35" s="174">
+      <c r="C35" s="31">
         <f t="shared" si="0"/>
         <v>-8.4302325581395346E-2</v>
       </c>
@@ -6260,10 +6266,10 @@
       <c r="A36" s="11">
         <v>1998</v>
       </c>
-      <c r="B36" s="179">
+      <c r="B36" s="36">
         <v>4045</v>
       </c>
-      <c r="C36" s="174">
+      <c r="C36" s="31">
         <f t="shared" si="0"/>
         <v>-0.14391534391534391</v>
       </c>
@@ -6272,10 +6278,10 @@
       <c r="A37" s="11">
         <v>1999</v>
       </c>
-      <c r="B37" s="179">
+      <c r="B37" s="36">
         <v>4234</v>
       </c>
-      <c r="C37" s="174">
+      <c r="C37" s="31">
         <f t="shared" si="0"/>
         <v>4.6724351050679853E-2</v>
       </c>
@@ -6284,10 +6290,10 @@
       <c r="A38" s="11">
         <v>2000</v>
       </c>
-      <c r="B38" s="179">
+      <c r="B38" s="36">
         <v>4400</v>
       </c>
-      <c r="C38" s="174">
+      <c r="C38" s="31">
         <f t="shared" si="0"/>
         <v>3.920642418516769E-2</v>
       </c>
@@ -6296,10 +6302,10 @@
       <c r="A39" s="11">
         <v>2001</v>
       </c>
-      <c r="B39" s="179">
+      <c r="B39" s="36">
         <v>4300</v>
       </c>
-      <c r="C39" s="174">
+      <c r="C39" s="31">
         <f t="shared" si="0"/>
         <v>-2.2727272727272728E-2</v>
       </c>
@@ -6308,10 +6314,10 @@
       <c r="A40" s="11">
         <v>2002</v>
       </c>
-      <c r="B40" s="179">
+      <c r="B40" s="36">
         <v>4990</v>
       </c>
-      <c r="C40" s="174">
+      <c r="C40" s="31">
         <f t="shared" si="0"/>
         <v>0.16046511627906976</v>
       </c>
@@ -6320,10 +6326,10 @@
       <c r="A41" s="11">
         <v>2003</v>
       </c>
-      <c r="B41" s="179">
+      <c r="B41" s="36">
         <v>5600</v>
       </c>
-      <c r="C41" s="174">
+      <c r="C41" s="31">
         <f t="shared" si="0"/>
         <v>0.12224448897795591</v>
       </c>
@@ -6332,10 +6338,10 @@
       <c r="A42" s="11">
         <v>2004</v>
       </c>
-      <c r="B42" s="179">
+      <c r="B42" s="36">
         <v>5850</v>
       </c>
-      <c r="C42" s="174">
+      <c r="C42" s="31">
         <f t="shared" si="0"/>
         <v>4.4642857142857144E-2</v>
       </c>
@@ -6344,10 +6350,10 @@
       <c r="A43" s="11">
         <v>2005</v>
       </c>
-      <c r="B43" s="179">
+      <c r="B43" s="36">
         <v>7000</v>
       </c>
-      <c r="C43" s="174">
+      <c r="C43" s="31">
         <f t="shared" si="0"/>
         <v>0.19658119658119658</v>
       </c>
@@ -6356,10 +6362,10 @@
       <c r="A44" s="11">
         <v>2006</v>
       </c>
-      <c r="B44" s="179">
+      <c r="B44" s="36">
         <v>8400</v>
       </c>
-      <c r="C44" s="174">
+      <c r="C44" s="31">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -6368,10 +6374,10 @@
       <c r="A45" s="11">
         <v>2007</v>
       </c>
-      <c r="B45" s="179">
+      <c r="B45" s="36">
         <v>10800</v>
       </c>
-      <c r="C45" s="174">
+      <c r="C45" s="31">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
@@ -6380,10 +6386,10 @@
       <c r="A46" s="11">
         <v>2008</v>
       </c>
-      <c r="B46" s="179">
+      <c r="B46" s="36">
         <v>12500</v>
       </c>
-      <c r="C46" s="174">
+      <c r="C46" s="31">
         <f t="shared" si="0"/>
         <v>0.15740740740740741</v>
       </c>
@@ -6392,10 +6398,10 @@
       <c r="A47" s="11">
         <v>2009</v>
       </c>
-      <c r="B47" s="179">
+      <c r="B47" s="36">
         <v>14500</v>
       </c>
-      <c r="C47" s="174">
+      <c r="C47" s="31">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
@@ -6404,10 +6410,10 @@
       <c r="A48" s="11">
         <v>2010</v>
       </c>
-      <c r="B48" s="179">
+      <c r="B48" s="36">
         <v>18500</v>
       </c>
-      <c r="C48" s="174">
+      <c r="C48" s="31">
         <f t="shared" si="0"/>
         <v>0.27586206896551724</v>
       </c>
@@ -6416,10 +6422,10 @@
       <c r="A49" s="11">
         <v>2011</v>
       </c>
-      <c r="B49" s="179">
+      <c r="B49" s="36">
         <v>26400</v>
       </c>
-      <c r="C49" s="174">
+      <c r="C49" s="31">
         <f t="shared" si="0"/>
         <v>0.42702702702702705</v>
       </c>
@@ -6428,10 +6434,10 @@
       <c r="A50" s="11">
         <v>2012</v>
       </c>
-      <c r="B50" s="179">
+      <c r="B50" s="36">
         <v>31050</v>
       </c>
-      <c r="C50" s="174">
+      <c r="C50" s="31">
         <f t="shared" si="0"/>
         <v>0.17613636363636365</v>
       </c>
@@ -6440,10 +6446,10 @@
       <c r="A51" s="11">
         <v>2013</v>
       </c>
-      <c r="B51" s="179">
+      <c r="B51" s="36">
         <v>29600</v>
       </c>
-      <c r="C51" s="174">
+      <c r="C51" s="31">
         <f t="shared" si="0"/>
         <v>-4.6698872785829307E-2</v>
       </c>
@@ -6452,10 +6458,10 @@
       <c r="A52" s="11">
         <v>2014</v>
       </c>
-      <c r="B52" s="179">
+      <c r="B52" s="36">
         <v>28006.5</v>
       </c>
-      <c r="C52" s="174">
+      <c r="C52" s="31">
         <f t="shared" si="0"/>
         <v>-5.3834459459459458E-2</v>
       </c>
@@ -6464,10 +6470,10 @@
       <c r="A53" s="11">
         <v>2015</v>
       </c>
-      <c r="B53" s="179">
+      <c r="B53" s="36">
         <v>26343.5</v>
       </c>
-      <c r="C53" s="174">
+      <c r="C53" s="31">
         <f t="shared" si="0"/>
         <v>-5.9379072715262528E-2</v>
       </c>
@@ -6476,10 +6482,10 @@
       <c r="A54" s="11">
         <v>2016</v>
       </c>
-      <c r="B54" s="179">
+      <c r="B54" s="36">
         <v>28623.5</v>
       </c>
-      <c r="C54" s="174">
+      <c r="C54" s="31">
         <f t="shared" si="0"/>
         <v>8.6548864046159399E-2</v>
       </c>
@@ -6488,10 +6494,10 @@
       <c r="A55" s="11">
         <v>2017</v>
       </c>
-      <c r="B55" s="179">
+      <c r="B55" s="36">
         <v>29667.5</v>
       </c>
-      <c r="C55" s="174">
+      <c r="C55" s="31">
         <f t="shared" si="0"/>
         <v>3.6473526997047881E-2</v>
       </c>
@@ -6500,10 +6506,10 @@
       <c r="A56" s="11">
         <v>2018</v>
       </c>
-      <c r="B56" s="179">
+      <c r="B56" s="36">
         <v>31438</v>
       </c>
-      <c r="C56" s="174">
+      <c r="C56" s="31">
         <f t="shared" si="0"/>
         <v>5.9678098929805343E-2</v>
       </c>
@@ -6512,10 +6518,10 @@
       <c r="A57" s="11">
         <v>2019</v>
       </c>
-      <c r="B57" s="179">
+      <c r="B57" s="36">
         <v>35220</v>
       </c>
-      <c r="C57" s="174">
+      <c r="C57" s="31">
         <f t="shared" si="0"/>
         <v>0.12030027355429734</v>
       </c>
@@ -6524,10 +6530,10 @@
       <c r="A58" s="11">
         <v>2020</v>
       </c>
-      <c r="B58" s="179">
+      <c r="B58" s="36">
         <v>48651</v>
       </c>
-      <c r="C58" s="174">
+      <c r="C58" s="31">
         <f t="shared" si="0"/>
         <v>0.38134582623509372</v>
       </c>
